--- a/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
+++ b/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="4" r:id="rId1"/>
-    <sheet name="もくじ" sheetId="9" r:id="rId2"/>
-    <sheet name="実装について" sheetId="2" r:id="rId3"/>
-    <sheet name="感情について" sheetId="1" r:id="rId4"/>
-    <sheet name="感情モデルの実装" sheetId="5" r:id="rId5"/>
-    <sheet name="人格モデル考察" sheetId="7" r:id="rId6"/>
+    <sheet name="実装について" sheetId="2" r:id="rId2"/>
+    <sheet name="感情について" sheetId="1" r:id="rId3"/>
+    <sheet name="感情モデルの実装" sheetId="5" r:id="rId4"/>
+    <sheet name="人格モデル考察" sheetId="7" r:id="rId5"/>
+    <sheet name="もくじ" sheetId="9" r:id="rId6"/>
     <sheet name="文字列の解析" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>ここでは、ダーウィンの提唱する進化論に基づき
 『人の由来と性に関連した選択』により提示された証拠を基に
@@ -1789,6 +1789,60 @@
   </si>
   <si>
     <t>http://woody-kawagoe.hatenablog.com/entry/2014/10/14/215031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rails実装について</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://d.hatena.ne.jp/sandmark/20120313/1331599094</t>
+  </si>
+  <si>
+    <t>人工無脳ししゃもをRails3.2で動かしてみる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://kaiwa-kouza.com/contents/wh10_1_5.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記憶のしくみ　想起(再認・再生・再構成)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://d.hatena.ne.jp/repose/20121108/1352373745</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deep learningで使われるautoencoder実装</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベイジアンフィルタを実装</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://gihyo.jp/dev/serial/01/machine-learning/0003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自然言語処理研究室</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://lr-www.pi.titech.ac.jp/wp/?page_id=5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://developer.yahoo.co.jp/webapi/jlp/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yahoo! JAPANが提供するテキスト解析WebAPI</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2350,6 +2404,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2407,7 +2462,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3189,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3360,25 +3414,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F32"/>
   <sheetViews>
@@ -3493,12 +3528,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3522,10 +3557,10 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="4"/>
       <c r="I2" s="3" t="s">
         <v>21</v>
@@ -3536,10 +3571,10 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -3547,11 +3582,11 @@
     </row>
     <row r="4" spans="1:9" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
       <c r="I4" s="3" t="s">
         <v>23</v>
@@ -3568,14 +3603,14 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3592,10 +3627,10 @@
       <c r="E7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3612,10 +3647,10 @@
       <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3632,10 +3667,10 @@
       <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3652,10 +3687,10 @@
       <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3672,10 +3707,10 @@
       <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3692,10 +3727,10 @@
       <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3712,10 +3747,10 @@
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3732,10 +3767,10 @@
       <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3765,26 +3800,66 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B6:G6"/>
@@ -3808,7 +3883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3826,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3844,12 +3919,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B44"/>
+  <dimension ref="B3:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3858,7 +3952,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="29" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3933,7 +4027,7 @@
       </c>
     </row>
     <row r="31" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="29" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3985,6 +4079,21 @@
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
+++ b/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
@@ -10,17 +10,17 @@
     <sheet name="はじめに" sheetId="4" r:id="rId1"/>
     <sheet name="実装について" sheetId="2" r:id="rId2"/>
     <sheet name="感情について" sheetId="1" r:id="rId3"/>
-    <sheet name="感情モデルの実装" sheetId="5" r:id="rId4"/>
-    <sheet name="人格モデル考察" sheetId="7" r:id="rId5"/>
-    <sheet name="もくじ" sheetId="9" r:id="rId6"/>
-    <sheet name="文字列の解析" sheetId="11" r:id="rId7"/>
+    <sheet name="文字列の解析" sheetId="11" r:id="rId4"/>
+    <sheet name="感情モデルの実装" sheetId="5" r:id="rId5"/>
+    <sheet name="人格モデル考察" sheetId="7" r:id="rId6"/>
+    <sheet name="もくじ" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>ここでは、ダーウィンの提唱する進化論に基づき
 『人の由来と性に関連した選択』により提示された証拠を基に
@@ -1845,12 +1845,60 @@
     <t>Yahoo! JAPANが提供するテキスト解析WebAPI</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>http://blog.livedoor.jp/tak_tak0/archives/51945306.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形態素解析しない特徴語抽出</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記憶を正しく思い出すための脳の仕組みを解明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.jst.go.jp/pr/announce/20150424-2/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習心理学</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.n-seiryo.ac.jp/~usui/koneko/6gakusyu.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自然言語処理研究室</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://lr-www.pi.titech.ac.jp/wp/?page_id=5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語評価極性辞書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cl.ecei.tohoku.ac.jp/index.php?Open%20Resources%2FJapanese%20Sentiment%20Polarity%20Dictionary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.lr.pi.titech.ac.jp/~takamura/pndic_ja.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単語感情極性対応表</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2336,7 +2384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2462,6 +2510,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3244,167 +3293,167 @@
   <dimension ref="B1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="15" customHeight="1"/>
+    <row r="2" spans="2:3" ht="17.25">
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" ht="15" customHeight="1"/>
+    <row r="8" spans="2:3" ht="15" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" ht="15" customHeight="1">
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="15" customHeight="1"/>
+    <row r="15" spans="2:3" ht="15" customHeight="1"/>
+    <row r="16" spans="2:3" ht="15" customHeight="1">
       <c r="B16" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="15" customHeight="1"/>
+    <row r="22" spans="2:3" ht="15" customHeight="1"/>
+    <row r="23" spans="2:3" ht="15" customHeight="1">
       <c r="B23" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15" customHeight="1">
       <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15" customHeight="1">
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15" customHeight="1">
       <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15" customHeight="1">
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" ht="15" customHeight="1"/>
+    <row r="30" spans="2:3" ht="15" customHeight="1"/>
+    <row r="31" spans="2:3" ht="15" customHeight="1">
       <c r="B31" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3" ht="15" customHeight="1">
       <c r="C35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3" ht="15" customHeight="1">
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:3" ht="15" customHeight="1"/>
+    <row r="38" spans="3:3" ht="15" customHeight="1"/>
+    <row r="39" spans="3:3" ht="15" customHeight="1"/>
+    <row r="40" spans="3:3" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3421,102 +3470,102 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
@@ -3530,13 +3579,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" bestFit="1" customWidth="1"/>
@@ -3546,13 +3595,13 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="41.25" customHeight="1" thickTop="1">
       <c r="A2" s="23"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3566,7 +3615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -3580,7 +3629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="96" customHeight="1" thickBot="1">
       <c r="A4" s="24"/>
       <c r="B4" s="37" t="s">
         <v>4</v>
@@ -3592,7 +3641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3601,7 +3650,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="23"/>
       <c r="B6" s="30" t="s">
         <v>13</v>
@@ -3613,7 +3662,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="22" t="s">
         <v>12</v>
@@ -3633,7 +3682,7 @@
       <c r="G7" s="48"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="16" t="s">
         <v>8</v>
@@ -3653,7 +3702,7 @@
       <c r="G8" s="44"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="17" t="s">
         <v>10</v>
@@ -3673,7 +3722,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="17" t="s">
         <v>15</v>
@@ -3693,7 +3742,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="17" t="s">
         <v>16</v>
@@ -3713,7 +3762,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="17" t="s">
         <v>19</v>
@@ -3733,7 +3782,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="17" t="s">
         <v>20</v>
@@ -3753,7 +3802,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="25" t="s">
         <v>25</v>
@@ -3773,7 +3822,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickTop="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="27" t="s">
@@ -3784,7 +3833,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3793,13 +3842,13 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="19.5" customHeight="1">
       <c r="B17" s="26" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="75" customHeight="1">
       <c r="B18" s="40" t="s">
         <v>41</v>
       </c>
@@ -3809,55 +3858,115 @@
       <c r="F18" s="41"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
+    <row r="19" spans="2:9" ht="19.5" customHeight="1"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="49" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="49" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3885,19 +3994,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="18.75">
+      <c r="B3" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="18.75">
+      <c r="B31" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="18.75">
+      <c r="B50" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3906,10 +4162,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -3924,10 +4180,28 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -3936,169 +4210,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B52"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
+++ b/bin/08...Mood+Study & Analysis/仕様と目標.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>ここでは、ダーウィンの提唱する進化論に基づき
 『人の由来と性に関連した選択』により提示された証拠を基に
@@ -1124,134 +1124,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>あたかも人と会話した事を連想させ、記憶や結果に“会話をした” という解釈が残る機構と判断しています。</t>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キオク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイシャク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人と人工無脳が会話を行う上での目標と、完成形に求めるものは “面白い会話” であり</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>オモシロ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>話していて飽きない “使用者が楽しめる会話”であり、気を使わず“寂しさを感じさせない”ものです。</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サミ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>前向きな結果への貢献を製作の目標としています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解決や推論といった知的活動は、暗に人は嫌悪している節がある事に由来している為です。</t>
-    <rPh sb="0" eb="2">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スイロン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チテキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンオ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ユライ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タメ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1306,37 +1179,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そこに、知的活動は必要としておらず、使用者の感情出力に楽しさや満足感・充実感といった</t>
-    <rPh sb="4" eb="6">
-      <t>チテキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>シヨウシャ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンジョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>マンゾクカン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ジュウジツカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実装する上での目標は以下の要件を満たすものとします。</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -1891,6 +1733,113 @@
   </si>
   <si>
     <t>単語感情極性対応表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>あたかも人と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会話した事を連想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>させ、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記憶や結果に“会話をした” という解釈が残る機構</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と判断しています。</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主となる目標に、知的活動は必要としておらず、使用者の感情出力に楽しさや満足感・充実感といった</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>マンゾクカン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ジュウジツカン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1898,7 +1847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,6 +1919,32 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2452,7 +2427,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2510,7 +2486,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2529,59 +2504,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>258537</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349252</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>48025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7062108" y="0"/>
-          <a:ext cx="4172858" cy="3129643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>578303</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>616403</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>567941</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:colOff>606041</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2598,7 +2530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5378903" y="7086600"/>
+          <a:off x="5417003" y="1066800"/>
           <a:ext cx="4104438" cy="3956957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2652,11 +2584,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+            <a:t>Program</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2943,7 +2879,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3292,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3351,7 +3287,7 @@
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1">
@@ -3415,7 +3351,7 @@
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1"/>
@@ -3425,31 +3361,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="15" customHeight="1">
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="32" spans="2:3" ht="15" customHeight="1"/>
+    <row r="33" spans="3:3" ht="15" customHeight="1"/>
     <row r="34" spans="3:3" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="15" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="15" customHeight="1">
-      <c r="C36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="15" customHeight="1"/>
     <row r="37" spans="3:3" ht="15" customHeight="1"/>
     <row r="38" spans="3:3" ht="15" customHeight="1"/>
     <row r="39" spans="3:3" ht="15" customHeight="1"/>
@@ -3458,7 +3382,6 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3466,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3477,97 +3400,97 @@
   <sheetData>
     <row r="6" spans="2:6">
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3606,10 +3529,10 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="4"/>
       <c r="I2" s="3" t="s">
         <v>21</v>
@@ -3620,10 +3543,10 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -3631,11 +3554,11 @@
     </row>
     <row r="4" spans="1:9" ht="96" customHeight="1" thickBot="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
       <c r="I4" s="3" t="s">
         <v>23</v>
@@ -3652,14 +3575,14 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
@@ -3676,10 +3599,10 @@
       <c r="E7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
@@ -3696,10 +3619,10 @@
       <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1">
@@ -3716,10 +3639,10 @@
       <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
@@ -3736,10 +3659,10 @@
       <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
@@ -3756,10 +3679,10 @@
       <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
@@ -3776,10 +3699,10 @@
       <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
@@ -3796,10 +3719,10 @@
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
@@ -3816,10 +3739,10 @@
       <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" thickTop="1">
@@ -3849,124 +3772,124 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="75" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="2:9" ht="19.5" customHeight="1"/>
     <row r="20" spans="2:9">
-      <c r="B20" s="49" t="s">
-        <v>121</v>
+      <c r="B20" s="29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="49" t="s">
-        <v>123</v>
+      <c r="B22" s="29" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="49" t="s">
-        <v>124</v>
+      <c r="B24" s="29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="49" t="s">
-        <v>126</v>
+      <c r="B26" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="49" t="s">
-        <v>129</v>
+      <c r="B28" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="49" t="s">
-        <v>131</v>
+      <c r="B30" s="29" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="49" t="s">
-        <v>132</v>
+      <c r="B32" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="49" t="s">
-        <v>134</v>
+      <c r="B34" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="49" t="s">
-        <v>136</v>
+      <c r="B36" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="49" t="s">
-        <v>138</v>
+      <c r="B38" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="49" t="s">
-        <v>141</v>
+      <c r="B40" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3994,10 +3917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B52"/>
+  <dimension ref="B3:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4005,149 +3928,149 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="18.75">
-      <c r="B3" s="29" t="s">
-        <v>91</v>
+    <row r="3" spans="2:2" ht="24">
+      <c r="B3" s="30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>97</v>
+      <c r="B4" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>95</v>
+      <c r="B6" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>98</v>
+      <c r="B8" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
+      <c r="B10" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>102</v>
+      <c r="B12" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>105</v>
+      <c r="B14" s="29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>107</v>
+      <c r="B16" s="29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="24">
+      <c r="B22" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18.75">
-      <c r="B31" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>94</v>
+    <row r="29" spans="2:2">
+      <c r="B29" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
-        <v>110</v>
+      <c r="B34" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="24">
+      <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
-        <v>116</v>
+    <row r="42" spans="2:2">
+      <c r="B42" s="29" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="18.75">
-      <c r="B50" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
